--- a/public/excel/Шаблон_Карта_готовности бас.xlsx
+++ b/public/excel/Шаблон_Карта_готовности бас.xlsx
@@ -1007,17 +1007,17 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.11"/>
@@ -1063,24 +1063,6 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1105,7 +1087,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -12378,15 +12360,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.89"/>
@@ -12427,24 +12409,6 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
